--- a/data/Stalag_06_21/PrBlank.xlsx
+++ b/data/Stalag_06_21/PrBlank.xlsx
@@ -120,10 +120,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -495,119 +495,119 @@
         <v>5.956840605670423</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="1" customFormat="1">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:9" s="2" customFormat="1">
+      <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="1">
-        <v>0</v>
-      </c>
-      <c r="C3" s="1">
+      <c r="B3" s="2">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2">
         <v>3.630037013570607</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="2">
         <v>1.624784518618041E-05</v>
       </c>
-      <c r="E3" s="1">
-        <v>0</v>
-      </c>
-      <c r="F3" s="1">
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2">
         <v>0.001611168959159401</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="2">
         <v>1.245902478446284</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3" s="2">
         <v>1.170412714330077E-05</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3" s="2">
         <v>3.137828579712353</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="1" customFormat="1">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:9" s="2" customFormat="1">
+      <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="1">
-        <v>0</v>
-      </c>
-      <c r="C4" s="1">
+      <c r="B4" s="2">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
         <v>7.209735016950618</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="2">
         <v>9.29400427183327E-06</v>
       </c>
-      <c r="E4" s="1">
-        <v>0</v>
-      </c>
-      <c r="F4" s="1">
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
         <v>0.0019383118492529</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="2">
         <v>0.6767865124103144</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4" s="2">
         <v>2.068890410208457E-05</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4" s="2">
         <v>1.258487344291616</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="1" customFormat="1">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:9" s="2" customFormat="1">
+      <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="2">
         <v>7.106410146572972E-07</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="2">
         <v>2.914097457274869</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="2">
         <v>2.391769524483467E-06</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="2">
         <v>6.728162124893154E-06</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="2">
         <v>0.001480229407197808</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="2">
         <v>0.9228907057624319</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="2">
         <v>2.630552056665815E-06</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5" s="2">
         <v>1.661203306301978</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="1" customFormat="1">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:9" s="2" customFormat="1">
+      <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="1">
-        <v>0</v>
-      </c>
-      <c r="C6" s="1">
+      <c r="B6" s="2">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2">
         <v>7.030750022046822</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="2">
         <v>2.033389919904386E-05</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="2">
         <v>9.874494864374038E-07</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="2">
         <v>0.001788724834146899</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="2">
         <v>0.285257126146885</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="2">
         <v>6.965512043178241E-06</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6" s="2">
         <v>1.526964667660919</v>
       </c>
     </row>
@@ -640,119 +640,119 @@
         <v>0.7215327308381987</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="1" customFormat="1">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:9" s="2" customFormat="1">
+      <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="1">
-        <v>0</v>
-      </c>
-      <c r="C8" s="1">
+      <c r="B8" s="2">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2">
         <v>4.882931317314012</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="2">
         <v>5.126966128587164E-06</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="2">
         <v>1.422959117844467E-05</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="2">
         <v>0.001392742270938514</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="2">
         <v>1.124248690288161</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8" s="2">
         <v>8.664497432888697E-07</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I8" s="2">
         <v>2.198157928290059</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="1" customFormat="1">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:9" s="2" customFormat="1">
+      <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="1">
-        <v>0</v>
-      </c>
-      <c r="C9" s="1">
+      <c r="B9" s="2">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2">
         <v>3.272067262733666</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="2">
         <v>9.170802011579224E-06</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="2">
         <v>1.033507044819373E-05</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="2">
         <v>0.001344984014725526</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="2">
         <v>0.5872940819555429</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H9" s="2">
         <v>3.708619239722527E-06</v>
       </c>
-      <c r="I9" s="1">
+      <c r="I9" s="2">
         <v>2.86935124354105</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="1" customFormat="1">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:9" s="2" customFormat="1">
+      <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="2">
         <v>1.140855687259216E-05</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="2">
         <v>5.956840828425209</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="2">
         <v>1.050608830559361E-05</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="2">
         <v>2.465022193085536E-05</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="2">
         <v>0.001867569718984674</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="2">
         <v>0.6767865107033817</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H10" s="2">
         <v>4.463268370561803E-06</v>
       </c>
-      <c r="I10" s="1">
+      <c r="I10" s="2">
         <v>4.614453904330715</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="1" customFormat="1">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:9" s="2" customFormat="1">
+      <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="1">
-        <v>0</v>
-      </c>
-      <c r="C11" s="1">
+      <c r="B11" s="2">
+        <v>0</v>
+      </c>
+      <c r="C11" s="2">
         <v>2.377142858330382</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="2">
         <v>6.363189262627576E-06</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="2">
         <v>9.790924832292474E-06</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="2">
         <v>0.001320584150528716</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="2">
         <v>1.303233571680898</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H11" s="2">
         <v>1.783399310185234E-05</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I11" s="2">
         <v>2.019173056285454</v>
       </c>
     </row>
